--- a/data/Border_Data.xlsx
+++ b/data/Border_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fynn\Documents\GitHub\MacrometricsProject_2023\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034F0001-9C87-475F-9F7A-0DF70FC1D0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356C768E-90D7-41EA-A607-25B4D2B78BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C550400C-416A-481C-8A3D-5A9277298504}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{C550400C-416A-481C-8A3D-5A9277298504}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="182">
   <si>
     <t>Country</t>
   </si>
@@ -629,13 +629,25 @@
   </si>
   <si>
     <t>Secondary Boarder</t>
+  </si>
+  <si>
+    <t>Nato</t>
+  </si>
+  <si>
+    <t>OKVS</t>
+  </si>
+  <si>
+    <t>BRICS</t>
+  </si>
+  <si>
+    <t>Neutrality</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -664,19 +676,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -691,17 +705,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -734,21 +755,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{51F5509B-09F8-4504-A8DB-34E08B74B81F}" name="Tabelle2" displayName="Tabelle2" ref="A1:C175" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:C175" xr:uid="{51F5509B-09F8-4504-A8DB-34E08B74B81F}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{51F5509B-09F8-4504-A8DB-34E08B74B81F}" name="Tabelle2" displayName="Tabelle2" ref="A1:G175" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:G175" xr:uid="{51F5509B-09F8-4504-A8DB-34E08B74B81F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C175">
     <sortCondition ref="A1:A175"/>
   </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3E5288B1-0D3E-4DBF-83C5-E45DCA1917F3}" name="Country"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{3E5288B1-0D3E-4DBF-83C5-E45DCA1917F3}" name="Country" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{D8D0F16E-6CEB-4835-A597-86F997D6C0DE}" name="Direct Border "/>
     <tableColumn id="3" xr3:uid="{6DF92410-08CE-4DF6-BCFA-EA9FC396501A}" name="Secondary Boarder"/>
+    <tableColumn id="4" xr3:uid="{E58801F5-CC35-47ED-A5FA-B6B919983129}" name="Nato"/>
+    <tableColumn id="5" xr3:uid="{FD303170-FF29-4B81-BE48-C65A129422B5}" name="OKVS"/>
+    <tableColumn id="6" xr3:uid="{F0976625-F44B-4846-8C2A-9C634051B459}" name="BRICS"/>
+    <tableColumn id="7" xr3:uid="{115C3D9A-1AC3-461A-899C-DDD35B552097}" name="Neutrality"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1051,32 +1070,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E077B94-7757-4643-9617-62A0F8C460A7}">
-  <dimension ref="A1:C175"/>
+  <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D131" sqref="D131"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G150" sqref="G150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="41.88671875" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" customWidth="1"/>
     <col min="3" max="3" width="32.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B2">
@@ -1085,9 +1116,18 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B3">
@@ -1096,9 +1136,18 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4">
@@ -1107,9 +1156,18 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5">
@@ -1118,9 +1176,18 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B6">
@@ -1129,9 +1196,18 @@
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B7">
@@ -1140,9 +1216,18 @@
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B8">
@@ -1151,9 +1236,18 @@
       <c r="C8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B9">
@@ -1162,8 +1256,17 @@
       <c r="C9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>131</v>
       </c>
@@ -1173,9 +1276,18 @@
       <c r="C10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B11">
@@ -1184,9 +1296,18 @@
       <c r="C11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B12">
@@ -1195,8 +1316,17 @@
       <c r="C12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>132</v>
       </c>
@@ -1206,9 +1336,18 @@
       <c r="C13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B14">
@@ -1217,9 +1356,18 @@
       <c r="C14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B15">
@@ -1228,9 +1376,18 @@
       <c r="C15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B16">
@@ -1239,9 +1396,18 @@
       <c r="C16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B17">
@@ -1250,9 +1416,18 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B18">
@@ -1261,9 +1436,18 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B19">
@@ -1272,9 +1456,18 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B20">
@@ -1283,9 +1476,18 @@
       <c r="C20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B21">
@@ -1294,9 +1496,18 @@
       <c r="C21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B22">
@@ -1305,9 +1516,18 @@
       <c r="C22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B23">
@@ -1316,9 +1536,18 @@
       <c r="C23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B24">
@@ -1327,9 +1556,18 @@
       <c r="C24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B25">
@@ -1338,9 +1576,18 @@
       <c r="C25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B26">
@@ -1349,9 +1596,18 @@
       <c r="C26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B27">
@@ -1360,9 +1616,18 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B28">
@@ -1371,9 +1636,18 @@
       <c r="C28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B29">
@@ -1382,9 +1656,18 @@
       <c r="C29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B30">
@@ -1393,9 +1676,18 @@
       <c r="C30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B31">
@@ -1404,8 +1696,17 @@
       <c r="C31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>88</v>
       </c>
@@ -1415,9 +1716,18 @@
       <c r="C32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B33">
@@ -1426,9 +1736,18 @@
       <c r="C33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B34">
@@ -1437,9 +1756,18 @@
       <c r="C34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B35">
@@ -1448,9 +1776,18 @@
       <c r="C35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B36">
@@ -1459,9 +1796,18 @@
       <c r="C36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B37">
@@ -1470,9 +1816,18 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B38">
@@ -1481,9 +1836,18 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B39">
@@ -1492,9 +1856,18 @@
       <c r="C39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B40">
@@ -1503,9 +1876,18 @@
       <c r="C40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B41">
@@ -1514,9 +1896,18 @@
       <c r="C41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B42">
@@ -1525,9 +1916,18 @@
       <c r="C42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B43">
@@ -1536,9 +1936,18 @@
       <c r="C43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B44">
@@ -1547,9 +1956,18 @@
       <c r="C44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B45">
@@ -1558,9 +1976,18 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B46">
@@ -1569,9 +1996,18 @@
       <c r="C46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B47">
@@ -1580,9 +2016,18 @@
       <c r="C47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B48">
@@ -1591,9 +2036,18 @@
       <c r="C48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B49">
@@ -1602,9 +2056,18 @@
       <c r="C49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B50">
@@ -1613,8 +2076,17 @@
       <c r="C50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>116</v>
       </c>
@@ -1624,9 +2096,18 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B52">
@@ -1635,9 +2116,18 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B53">
@@ -1646,9 +2136,18 @@
       <c r="C53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B54">
@@ -1657,9 +2156,18 @@
       <c r="C54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B55">
@@ -1668,8 +2176,17 @@
       <c r="C55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>142</v>
       </c>
@@ -1679,9 +2196,18 @@
       <c r="C56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B57">
@@ -1690,9 +2216,18 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B58">
@@ -1701,9 +2236,18 @@
       <c r="C58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B59">
@@ -1712,8 +2256,17 @@
       <c r="C59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>133</v>
       </c>
@@ -1723,9 +2276,18 @@
       <c r="C60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B61">
@@ -1734,9 +2296,18 @@
       <c r="C61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B62">
@@ -1745,9 +2316,18 @@
       <c r="C62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B63">
@@ -1756,9 +2336,18 @@
       <c r="C63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B64">
@@ -1767,9 +2356,18 @@
       <c r="C64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B65">
@@ -1778,9 +2376,18 @@
       <c r="C65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B66">
@@ -1789,9 +2396,18 @@
       <c r="C66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B67">
@@ -1800,9 +2416,18 @@
       <c r="C67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B68">
@@ -1811,9 +2436,18 @@
       <c r="C68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B69">
@@ -1822,9 +2456,18 @@
       <c r="C69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B70">
@@ -1833,9 +2476,18 @@
       <c r="C70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B71">
@@ -1844,9 +2496,18 @@
       <c r="C71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B72">
@@ -1855,9 +2516,18 @@
       <c r="C72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B73">
@@ -1866,9 +2536,18 @@
       <c r="C73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B74">
@@ -1877,9 +2556,18 @@
       <c r="C74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B75">
@@ -1888,9 +2576,18 @@
       <c r="C75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B76">
@@ -1899,9 +2596,18 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B77">
@@ -1910,9 +2616,18 @@
       <c r="C77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
         <v>163</v>
       </c>
       <c r="B78">
@@ -1921,9 +2636,18 @@
       <c r="C78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B79">
@@ -1932,9 +2656,18 @@
       <c r="C79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B80">
@@ -1943,8 +2676,17 @@
       <c r="C80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>89</v>
       </c>
@@ -1954,9 +2696,18 @@
       <c r="C81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
         <v>164</v>
       </c>
       <c r="B82">
@@ -1965,8 +2716,17 @@
       <c r="C82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>105</v>
       </c>
@@ -1976,9 +2736,18 @@
       <c r="C83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B84">
@@ -1987,8 +2756,17 @@
       <c r="C84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>90</v>
       </c>
@@ -1998,9 +2776,18 @@
       <c r="C85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B86">
@@ -2009,9 +2796,18 @@
       <c r="C86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B87">
@@ -2020,9 +2816,18 @@
       <c r="C87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B88">
@@ -2031,9 +2836,18 @@
       <c r="C88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B89">
@@ -2042,9 +2856,18 @@
       <c r="C89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B90">
@@ -2053,8 +2876,17 @@
       <c r="C90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>120</v>
       </c>
@@ -2064,9 +2896,18 @@
       <c r="C91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B92">
@@ -2075,9 +2916,18 @@
       <c r="C92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B93">
@@ -2086,9 +2936,18 @@
       <c r="C93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B94">
@@ -2097,9 +2956,18 @@
       <c r="C94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B95">
@@ -2108,8 +2976,17 @@
       <c r="C95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>121</v>
       </c>
@@ -2119,9 +2996,18 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B97">
@@ -2130,9 +3016,18 @@
       <c r="C97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B98">
@@ -2141,9 +3036,18 @@
       <c r="C98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B99">
@@ -2152,9 +3056,18 @@
       <c r="C99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B100">
@@ -2163,9 +3076,18 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B101">
@@ -2174,9 +3096,18 @@
       <c r="C101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B102">
@@ -2185,9 +3116,18 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B103">
@@ -2196,9 +3136,18 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B104">
@@ -2207,9 +3156,18 @@
       <c r="C104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B105">
@@ -2218,9 +3176,18 @@
       <c r="C105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B106">
@@ -2229,8 +3196,17 @@
       <c r="C106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>92</v>
       </c>
@@ -2240,9 +3216,18 @@
       <c r="C107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B108">
@@ -2251,9 +3236,18 @@
       <c r="C108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B109">
@@ -2262,9 +3256,18 @@
       <c r="C109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B110">
@@ -2273,9 +3276,18 @@
       <c r="C110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B111">
@@ -2284,9 +3296,18 @@
       <c r="C111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B112">
@@ -2295,9 +3316,18 @@
       <c r="C112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B113">
@@ -2306,9 +3336,18 @@
       <c r="C113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B114">
@@ -2317,9 +3356,18 @@
       <c r="C114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B115">
@@ -2328,9 +3376,18 @@
       <c r="C115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B116">
@@ -2339,9 +3396,18 @@
       <c r="C116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B117">
@@ -2350,9 +3416,18 @@
       <c r="C117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B118">
@@ -2361,9 +3436,18 @@
       <c r="C118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B119">
@@ -2372,8 +3456,17 @@
       <c r="C119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>152</v>
       </c>
@@ -2383,9 +3476,18 @@
       <c r="C120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
         <v>167</v>
       </c>
       <c r="B121">
@@ -2394,9 +3496,18 @@
       <c r="C121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B122">
@@ -2405,9 +3516,18 @@
       <c r="C122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B123">
@@ -2416,9 +3536,18 @@
       <c r="C123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B124">
@@ -2427,9 +3556,18 @@
       <c r="C124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B125">
@@ -2438,9 +3576,18 @@
       <c r="C125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B126">
@@ -2449,9 +3596,18 @@
       <c r="C126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B127">
@@ -2460,8 +3616,17 @@
       <c r="C127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>124</v>
       </c>
@@ -2471,9 +3636,18 @@
       <c r="C128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B129">
@@ -2482,9 +3656,18 @@
       <c r="C129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B130">
@@ -2493,9 +3676,18 @@
       <c r="C130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B131">
@@ -2504,9 +3696,18 @@
       <c r="C131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B132" t="s">
@@ -2515,9 +3716,18 @@
       <c r="C132" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B133">
@@ -2526,9 +3736,18 @@
       <c r="C133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
         <v>169</v>
       </c>
       <c r="B134">
@@ -2537,9 +3756,18 @@
       <c r="C134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B135">
@@ -2548,9 +3776,18 @@
       <c r="C135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B136">
@@ -2559,9 +3796,18 @@
       <c r="C136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B137">
@@ -2570,9 +3816,18 @@
       <c r="C137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B138">
@@ -2581,9 +3836,18 @@
       <c r="C138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B139">
@@ -2592,9 +3856,18 @@
       <c r="C139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B140">
@@ -2603,9 +3876,18 @@
       <c r="C140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B141">
@@ -2614,9 +3896,18 @@
       <c r="C141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B142">
@@ -2625,9 +3916,18 @@
       <c r="C142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B143">
@@ -2636,9 +3936,18 @@
       <c r="C143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B144">
@@ -2647,9 +3956,18 @@
       <c r="C144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B145">
@@ -2658,9 +3976,18 @@
       <c r="C145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B146">
@@ -2669,9 +3996,18 @@
       <c r="C146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B147">
@@ -2680,9 +4016,18 @@
       <c r="C147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B148">
@@ -2691,9 +4036,18 @@
       <c r="C148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B149">
@@ -2702,9 +4056,21 @@
       <c r="C149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B150">
@@ -2713,9 +4079,18 @@
       <c r="C150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B151">
@@ -2724,9 +4099,18 @@
       <c r="C151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B152">
@@ -2735,9 +4119,18 @@
       <c r="C152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B153">
@@ -2746,9 +4139,18 @@
       <c r="C153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B154">
@@ -2757,9 +4159,18 @@
       <c r="C154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B155">
@@ -2768,9 +4179,18 @@
       <c r="C155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B156">
@@ -2779,9 +4199,18 @@
       <c r="C156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B157">
@@ -2790,9 +4219,18 @@
       <c r="C157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B158">
@@ -2801,9 +4239,18 @@
       <c r="C158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B159">
@@ -2812,9 +4259,18 @@
       <c r="C159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B160">
@@ -2823,9 +4279,18 @@
       <c r="C160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B161">
@@ -2834,8 +4299,17 @@
       <c r="C161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>136</v>
       </c>
@@ -2845,9 +4319,18 @@
       <c r="C162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B163">
@@ -2856,9 +4339,18 @@
       <c r="C163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B164">
@@ -2867,9 +4359,18 @@
       <c r="C164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="4" t="s">
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B165">
@@ -2878,9 +4379,18 @@
       <c r="C165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B166">
@@ -2889,9 +4399,18 @@
       <c r="C166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B167" t="s">
@@ -2900,9 +4419,18 @@
       <c r="C167" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B168">
@@ -2911,9 +4439,18 @@
       <c r="C168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B169">
@@ -2922,9 +4459,18 @@
       <c r="C169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B170">
@@ -2933,9 +4479,18 @@
       <c r="C170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
         <v>174</v>
       </c>
       <c r="B171">
@@ -2944,9 +4499,18 @@
       <c r="C171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B172">
@@ -2955,9 +4519,18 @@
       <c r="C172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B173">
@@ -2966,9 +4539,18 @@
       <c r="C173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B174">
@@ -2977,15 +4559,33 @@
       <c r="C174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B175">
         <v>0</v>
       </c>
       <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
         <v>0</v>
       </c>
     </row>
